--- a/TestCasesv1.0.xlsx
+++ b/TestCasesv1.0.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akansh.jha\Documents\Incubytes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akansh.jha\eclipse-workspace\incubyte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6169A65-E2B6-4F33-BF4C-A14CE5B39B71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BA088-7E1B-4510-9489-82990E190DA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{35B5B1D5-8614-451B-921C-134E9E077D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases - Incubyte" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -138,9 +129,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>To Do</t>
-  </si>
-  <si>
     <t>User is able to login.</t>
   </si>
   <si>
@@ -161,10 +149,93 @@
     <t>Automated Test Name</t>
   </si>
   <si>
-    <t>The End to End Test has been automated.</t>
-  </si>
-  <si>
     <t>Compose New Email</t>
+  </si>
+  <si>
+    <t>Cucumber File</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - /incubyte/src/test/java/stepdefinitions/Steps_TC003.java
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - /incubyte/src/test/resources/funtionaltests/TC003.feature
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test Runner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - /incubyte/src/test/java/runners/TestRunner.java</t>
+    </r>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>TC002.java</t>
+  </si>
+  <si>
+    <t>TC001.java</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>The End to End Test has been automated. Sent message is not validated from the sent box.
+And Received message is also not validated on Gmail. Can be done, if needed.</t>
   </si>
 </sst>
 </file>
@@ -613,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E72BD1-21DB-4FC6-BE5F-F08D8BC77236}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,13 +703,14 @@
     <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="22" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -668,15 +740,18 @@
         <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>10</v>
@@ -697,18 +772,23 @@
         <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="6" t="s">
         <v>12</v>
@@ -729,18 +809,23 @@
         <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="8" t="s">
         <v>17</v>
@@ -758,56 +843,59 @@
         <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
   </sheetData>
@@ -819,7 +907,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:K1048576">
+  <conditionalFormatting sqref="J1:L1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -827,7 +915,7 @@
       <formula>"To Do"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K3">
+  <conditionalFormatting sqref="J3:L3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Not Done"</formula>
     </cfRule>
